--- a/Results/RQ1/keyword/Results_keyword_Best_Rounds.xlsx
+++ b/Results/RQ1/keyword/Results_keyword_Best_Rounds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\LMU\Bachelor\code\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\LMU\Bachelor\code\Results\RQ1\keyword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4F6B26-69BF-4245-9CD3-7C5650DAE004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA09B3F6-35AF-4252-80A1-001691A8BB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{8F83208E-8653-406B-BAC0-37A2A350190E}"/>
+    <workbookView xWindow="28680" yWindow="-9045" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8F83208E-8653-406B-BAC0-37A2A350190E}"/>
   </bookViews>
   <sheets>
     <sheet name="1_clean_data" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -382,14 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -975,217 +968,215 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="7"/>
-    <col min="5" max="5" width="44.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.90625" style="7"/>
+    <col min="1" max="1" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="7">
+      <c r="B17">
         <f>SUM(B3:B15)</f>
         <v>5</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <f>SUM(C3:C15)</f>
         <v>6</v>
       </c>
@@ -1201,251 +1192,249 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.90625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="7"/>
-    <col min="5" max="5" width="47.6328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="7"/>
+    <col min="1" max="1" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="7">
+      <c r="B17">
         <f>SUM(B3:B15)</f>
         <v>11</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <f>SUM(C3:C15)</f>
         <v>10</v>
       </c>
@@ -1465,228 +1454,226 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="7"/>
-    <col min="5" max="5" width="44.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="7"/>
+    <col min="1" max="1" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="7">
+      <c r="B17">
         <f>SUM(B3:B15)</f>
         <v>8</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <f>SUM(C3:C15)</f>
         <v>6</v>
       </c>
@@ -1706,248 +1693,246 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="7"/>
-    <col min="5" max="5" width="47.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="7"/>
+    <col min="1" max="1" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="7">
+      <c r="B18">
         <f>SUM(B3:B15)</f>
         <v>11</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <f>SUM(C3:C15)</f>
         <v>10</v>
       </c>
@@ -1967,227 +1952,225 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="7"/>
-    <col min="5" max="5" width="44.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="7"/>
+    <col min="1" max="1" width="40.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="7">
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>6</v>
       </c>
     </row>
